--- a/wikiimages/Puzzle-11 NEW.xlsx
+++ b/wikiimages/Puzzle-11 NEW.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
@@ -17,13 +17,13 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId5"/>
+    <pivotCache cacheId="6" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="35">
   <si>
     <t>PIECES</t>
   </si>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dhvnish" refreshedDate="42365.559746643521" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jyothi" refreshedDate="42374.89070891204" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
   <cacheSource type="consolidation">
     <consolidation autoPage="0">
       <rangeSets count="1">
@@ -240,17 +240,19 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Value" numFmtId="0">
-      <sharedItems containsBlank="1" count="11">
+      <sharedItems containsBlank="1" count="13">
         <s v="black_rook"/>
+        <s v="black_knight"/>
+        <s v="black_bishop"/>
+        <s v="black_queen"/>
         <m/>
-        <s v="black_queen"/>
+        <s v="black_pawn"/>
         <s v="black_king"/>
-        <s v="black_pawn"/>
-        <s v="black_bishop"/>
+        <s v="white_queen"/>
+        <s v="white_bishop"/>
         <s v="white_knight"/>
-        <s v="white_queen"/>
+        <s v="white_rook"/>
         <s v="white_pawn"/>
-        <s v="white_rook"/>
         <s v="white_king"/>
       </sharedItems>
     </cacheField>
@@ -278,37 +280,37 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
     <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
     <x v="6"/>
-    <x v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="0"/>
     <x v="7"/>
-    <x v="3"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
-    <x v="4"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="1"/>
@@ -328,27 +330,27 @@
   <r>
     <x v="1"/>
     <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
     <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="1"/>
+    <x v="5"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="1"/>
     <x v="6"/>
-    <x v="4"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="1"/>
     <x v="7"/>
-    <x v="4"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="2"/>
@@ -358,17 +360,17 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="2"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="2"/>
     <x v="4"/>
-    <x v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="2"/>
@@ -378,62 +380,62 @@
   <r>
     <x v="2"/>
     <x v="6"/>
-    <x v="1"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="2"/>
     <x v="7"/>
-    <x v="6"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="3"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="3"/>
     <x v="3"/>
-    <x v="7"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="3"/>
     <x v="4"/>
-    <x v="1"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="3"/>
     <x v="5"/>
-    <x v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="3"/>
     <x v="6"/>
-    <x v="5"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="3"/>
     <x v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
     <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="4"/>
@@ -443,153 +445,153 @@
   <r>
     <x v="4"/>
     <x v="3"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
     <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
     <x v="4"/>
     <x v="8"/>
   </r>
   <r>
-    <x v="4"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="11"/>
+  </r>
+  <r>
     <x v="6"/>
     <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
     <x v="7"/>
     <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="7"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="7"/>
     <x v="4"/>
-    <x v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="7"/>
     <x v="5"/>
-    <x v="9"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="7"/>
     <x v="6"/>
-    <x v="10"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="7"/>
     <x v="7"/>
-    <x v="1"/>
+    <x v="4"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="3">
     <pivotField showAll="0">
@@ -648,8 +650,8 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="X"/>
-    <tableColumn id="2" name="Y"/>
+    <tableColumn id="1" name="Y"/>
+    <tableColumn id="2" name="X"/>
     <tableColumn id="3" name="PIECE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -945,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,10 +958,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
       </c>
       <c r="C1" t="s">
         <v>30</v>
@@ -976,20 +978,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
         <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1003,23 +1011,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
         <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1038,7 +1046,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1060,29 +1068,23 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13">
         <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1109,7 +1111,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1131,15 +1133,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19">
         <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1166,31 +1165,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25">
         <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1217,23 +1219,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30">
         <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1244,23 +1246,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
       <c r="B33">
         <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1287,34 +1289,37 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
       <c r="B38">
         <v>4</v>
       </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
       <c r="B39">
         <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1333,16 +1338,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -1368,11 +1370,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
       <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1400,13 +1405,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -1430,12 +1438,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6</v>
       </c>
       <c r="B53">
         <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1446,15 +1457,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6</v>
       </c>
       <c r="B55">
         <v>5</v>
-      </c>
-      <c r="C55" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1522,15 +1530,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7</v>
       </c>
       <c r="B63">
         <v>5</v>
-      </c>
-      <c r="C63" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1583,7 +1588,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1901,7 +1906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
